--- a/data/pca/factorExposure/factorExposure_2015-07-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-07-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +720,112 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.02114768528725015</v>
+        <v>0.01384139364110134</v>
       </c>
       <c r="C2">
-        <v>0.02634414243917411</v>
+        <v>-0.0473054457478394</v>
       </c>
       <c r="D2">
-        <v>0.1265915909746892</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1391940292688398</v>
+      </c>
+      <c r="E2">
+        <v>0.004555123486730172</v>
+      </c>
+      <c r="F2">
+        <v>0.01304743368881951</v>
+      </c>
+      <c r="G2">
+        <v>0.1329718300808936</v>
+      </c>
+      <c r="H2">
+        <v>0.03990243333457528</v>
+      </c>
+      <c r="I2">
+        <v>-0.05137552160209259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.009491620945865777</v>
+        <v>-0.01103072920240775</v>
       </c>
       <c r="C3">
-        <v>0.02674442200713329</v>
+        <v>-0.01456280178336858</v>
       </c>
       <c r="D3">
-        <v>0.01300229587130217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01240531658430946</v>
+      </c>
+      <c r="E3">
+        <v>-0.01606785348771888</v>
+      </c>
+      <c r="F3">
+        <v>-0.01393623077304417</v>
+      </c>
+      <c r="G3">
+        <v>-0.006699056027189038</v>
+      </c>
+      <c r="H3">
+        <v>0.006458347513224434</v>
+      </c>
+      <c r="I3">
+        <v>0.004059439520470989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.03458695680281489</v>
+        <v>0.01844987803413445</v>
       </c>
       <c r="C4">
-        <v>0.0738269546644325</v>
+        <v>-0.09455349872311768</v>
       </c>
       <c r="D4">
-        <v>0.140580099039427</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1486841086270129</v>
+      </c>
+      <c r="E4">
+        <v>-0.01442600759076733</v>
+      </c>
+      <c r="F4">
+        <v>0.09201067119703348</v>
+      </c>
+      <c r="G4">
+        <v>0.01552088993894797</v>
+      </c>
+      <c r="H4">
+        <v>0.03748388044247129</v>
+      </c>
+      <c r="I4">
+        <v>-0.01181045019170643</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02719053273321735</v>
+        <v>0.03020071643476521</v>
       </c>
       <c r="C6">
-        <v>0.01405738508415451</v>
+        <v>-0.02941888013256929</v>
       </c>
       <c r="D6">
-        <v>0.1426774094348031</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1289088898582294</v>
+      </c>
+      <c r="E6">
+        <v>0.04067846272514287</v>
+      </c>
+      <c r="F6">
+        <v>0.04842568893940966</v>
+      </c>
+      <c r="G6">
+        <v>0.03780755101253342</v>
+      </c>
+      <c r="H6">
+        <v>0.02830808835628651</v>
+      </c>
+      <c r="I6">
+        <v>0.008225571304855675</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.007311814332504021</v>
+        <v>0.01018334107318291</v>
       </c>
       <c r="C7">
-        <v>0.02354874981629982</v>
+        <v>-0.03329725193307514</v>
       </c>
       <c r="D7">
-        <v>0.1148376645365402</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.106833769870596</v>
+      </c>
+      <c r="E7">
+        <v>0.04817484357395387</v>
+      </c>
+      <c r="F7">
+        <v>0.006453692579910961</v>
+      </c>
+      <c r="G7">
+        <v>0.02043707338992305</v>
+      </c>
+      <c r="H7">
+        <v>0.06439560732390427</v>
+      </c>
+      <c r="I7">
+        <v>0.01939217161850162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.00151165073550034</v>
+        <v>-0.005664003874497802</v>
       </c>
       <c r="C8">
-        <v>0.02686711032568851</v>
+        <v>-0.03362377009157391</v>
       </c>
       <c r="D8">
-        <v>0.08200810194730609</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0823766966555543</v>
+      </c>
+      <c r="E8">
+        <v>0.02008138884087321</v>
+      </c>
+      <c r="F8">
+        <v>0.03984364311342316</v>
+      </c>
+      <c r="G8">
+        <v>0.06764700283389768</v>
+      </c>
+      <c r="H8">
+        <v>-0.01165472932408815</v>
+      </c>
+      <c r="I8">
+        <v>0.02412539485456024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.03338577130221481</v>
+        <v>0.01679031672891776</v>
       </c>
       <c r="C9">
-        <v>0.06577835811230619</v>
+        <v>-0.08260326253017873</v>
       </c>
       <c r="D9">
-        <v>0.1301646626662253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1230126172370387</v>
+      </c>
+      <c r="E9">
+        <v>-0.005709546767475036</v>
+      </c>
+      <c r="F9">
+        <v>0.0560454818516515</v>
+      </c>
+      <c r="G9">
+        <v>0.005030488296805331</v>
+      </c>
+      <c r="H9">
+        <v>0.04615006714096372</v>
+      </c>
+      <c r="I9">
+        <v>-0.003294052278909341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.1594425991996865</v>
+        <v>0.2234110506092065</v>
       </c>
       <c r="C10">
-        <v>-0.1744113692791811</v>
+        <v>0.1095945734684768</v>
       </c>
       <c r="D10">
-        <v>0.01861933367604483</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.0002500491646245068</v>
+      </c>
+      <c r="E10">
+        <v>-0.02231422090538837</v>
+      </c>
+      <c r="F10">
+        <v>0.04154554736569586</v>
+      </c>
+      <c r="G10">
+        <v>-0.01477723413077018</v>
+      </c>
+      <c r="H10">
+        <v>-0.0598264230038159</v>
+      </c>
+      <c r="I10">
+        <v>0.1296301177893788</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.02071546277326249</v>
+        <v>0.01034900732510144</v>
       </c>
       <c r="C11">
-        <v>0.04257817601391446</v>
+        <v>-0.05242499156837722</v>
       </c>
       <c r="D11">
-        <v>0.05251266512935831</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.0484487724004546</v>
+      </c>
+      <c r="E11">
+        <v>0.01859078115819206</v>
+      </c>
+      <c r="F11">
+        <v>-0.01046930037205778</v>
+      </c>
+      <c r="G11">
+        <v>0.01125762056653546</v>
+      </c>
+      <c r="H11">
+        <v>0.04195693838435702</v>
+      </c>
+      <c r="I11">
+        <v>-0.02873801318874897</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.02333262999978082</v>
+        <v>0.01222190759164844</v>
       </c>
       <c r="C12">
-        <v>0.04160172826643231</v>
+        <v>-0.04915540161398703</v>
       </c>
       <c r="D12">
-        <v>0.06558676830836227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05170501526680015</v>
+      </c>
+      <c r="E12">
+        <v>0.0146868210600775</v>
+      </c>
+      <c r="F12">
+        <v>-0.01475823485343294</v>
+      </c>
+      <c r="G12">
+        <v>0.0007550705990061993</v>
+      </c>
+      <c r="H12">
+        <v>0.07155409501833294</v>
+      </c>
+      <c r="I12">
+        <v>-0.01381191179496941</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.006042101683456551</v>
+        <v>0.006576756683815544</v>
       </c>
       <c r="C13">
-        <v>0.03024636915038389</v>
+        <v>-0.04644043415820381</v>
       </c>
       <c r="D13">
-        <v>0.1548798964346353</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1562488896614193</v>
+      </c>
+      <c r="E13">
+        <v>0.03765084645639059</v>
+      </c>
+      <c r="F13">
+        <v>0.03280455207657929</v>
+      </c>
+      <c r="G13">
+        <v>0.04746324520438121</v>
+      </c>
+      <c r="H13">
+        <v>0.06526643845805559</v>
+      </c>
+      <c r="I13">
+        <v>0.04892825711411827</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.001663008129475638</v>
+        <v>0.002430300977969081</v>
       </c>
       <c r="C14">
-        <v>0.02067104895952451</v>
+        <v>-0.02797761978695988</v>
       </c>
       <c r="D14">
-        <v>0.1074062534602365</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.104078415536728</v>
+      </c>
+      <c r="E14">
+        <v>0.02646449698561464</v>
+      </c>
+      <c r="F14">
+        <v>0.02155077205235586</v>
+      </c>
+      <c r="G14">
+        <v>0.0518275357390492</v>
+      </c>
+      <c r="H14">
+        <v>0.1011150635444659</v>
+      </c>
+      <c r="I14">
+        <v>0.01807998288704149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.0009298736395560457</v>
+        <v>-0.0004564194883469476</v>
       </c>
       <c r="C15">
-        <v>0.01020694414640091</v>
+        <v>-0.01873917738831857</v>
       </c>
       <c r="D15">
-        <v>0.02419325820943184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.05078822116094972</v>
+      </c>
+      <c r="E15">
+        <v>0.005030468783467544</v>
+      </c>
+      <c r="F15">
+        <v>0.001313946511323763</v>
+      </c>
+      <c r="G15">
+        <v>0.02385138456751468</v>
+      </c>
+      <c r="H15">
+        <v>0.008395956952563937</v>
+      </c>
+      <c r="I15">
+        <v>-0.02331752376663508</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.02102968213771943</v>
+        <v>0.01133321756873512</v>
       </c>
       <c r="C16">
-        <v>0.03990619750954718</v>
+        <v>-0.04816714082514627</v>
       </c>
       <c r="D16">
-        <v>0.06012528199053933</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.04882379784093305</v>
+      </c>
+      <c r="E16">
+        <v>0.01898392907032534</v>
+      </c>
+      <c r="F16">
+        <v>-0.007243781585771821</v>
+      </c>
+      <c r="G16">
+        <v>0.001816763500690712</v>
+      </c>
+      <c r="H16">
+        <v>0.04953584912997427</v>
+      </c>
+      <c r="I16">
+        <v>-0.02766345555778649</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.006892793485349935</v>
+        <v>0.0009063291089802833</v>
       </c>
       <c r="C19">
-        <v>0.02569439762721809</v>
+        <v>-0.02297828062722708</v>
       </c>
       <c r="D19">
-        <v>0.1344872964078595</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.08728315173102912</v>
+      </c>
+      <c r="E19">
+        <v>-0.01879081277430944</v>
+      </c>
+      <c r="F19">
+        <v>0.01108755729776282</v>
+      </c>
+      <c r="G19">
+        <v>0.04045848421259989</v>
+      </c>
+      <c r="H19">
+        <v>0.06797917051125908</v>
+      </c>
+      <c r="I19">
+        <v>0.04729356919542062</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.004162751443152914</v>
+        <v>0.00452121453584713</v>
       </c>
       <c r="C20">
-        <v>0.02760869042213208</v>
+        <v>-0.0374952580263588</v>
       </c>
       <c r="D20">
-        <v>0.09637320663750497</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0993322460156368</v>
+      </c>
+      <c r="E20">
+        <v>0.003814792956926127</v>
+      </c>
+      <c r="F20">
+        <v>0.02720137911285154</v>
+      </c>
+      <c r="G20">
+        <v>0.01829905657487615</v>
+      </c>
+      <c r="H20">
+        <v>0.0525519824760359</v>
+      </c>
+      <c r="I20">
+        <v>0.006586818967297242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.007090701784593059</v>
+        <v>0.003946356526391786</v>
       </c>
       <c r="C21">
-        <v>0.03501902291293297</v>
+        <v>-0.04293556497313602</v>
       </c>
       <c r="D21">
-        <v>0.172074530485724</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1432666169699191</v>
+      </c>
+      <c r="E21">
+        <v>-0.003335138063819237</v>
+      </c>
+      <c r="F21">
+        <v>0.07374445929237233</v>
+      </c>
+      <c r="G21">
+        <v>0.07119979604338153</v>
+      </c>
+      <c r="H21">
+        <v>0.1547613257881676</v>
+      </c>
+      <c r="I21">
+        <v>0.1013891976771667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.0005507655674120782</v>
+        <v>-0.007739329307262888</v>
       </c>
       <c r="C22">
-        <v>0.06071114544251374</v>
+        <v>-0.07304212486390178</v>
       </c>
       <c r="D22">
-        <v>0.197426240391103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.2404822782315712</v>
+      </c>
+      <c r="E22">
+        <v>0.04132978496565792</v>
+      </c>
+      <c r="F22">
+        <v>0.02180444182723066</v>
+      </c>
+      <c r="G22">
+        <v>0.2175796407130518</v>
+      </c>
+      <c r="H22">
+        <v>-0.4802079196611984</v>
+      </c>
+      <c r="I22">
+        <v>-0.1097052240595269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.0003244293092096975</v>
+        <v>-0.007308664771700165</v>
       </c>
       <c r="C23">
-        <v>0.06119107214842007</v>
+        <v>-0.07396005745888701</v>
       </c>
       <c r="D23">
-        <v>0.1970077461148042</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.2411242622086323</v>
+      </c>
+      <c r="E23">
+        <v>0.03828837522360145</v>
+      </c>
+      <c r="F23">
+        <v>0.02111001577391402</v>
+      </c>
+      <c r="G23">
+        <v>0.2161788048271188</v>
+      </c>
+      <c r="H23">
+        <v>-0.480209667874082</v>
+      </c>
+      <c r="I23">
+        <v>-0.1114490541465358</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.02687926765420558</v>
+        <v>0.01150527121824011</v>
       </c>
       <c r="C24">
-        <v>0.0574634305121589</v>
+        <v>-0.06454374946909033</v>
       </c>
       <c r="D24">
-        <v>0.0718166300698253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.0575294038596701</v>
+      </c>
+      <c r="E24">
+        <v>0.02231721518854257</v>
+      </c>
+      <c r="F24">
+        <v>-0.004319429057402841</v>
+      </c>
+      <c r="G24">
+        <v>0.01484418807673528</v>
+      </c>
+      <c r="H24">
+        <v>0.07094786147229244</v>
+      </c>
+      <c r="I24">
+        <v>-0.02480807249773022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.0300571834640026</v>
+        <v>0.01543790163634156</v>
       </c>
       <c r="C25">
-        <v>0.04846070943156844</v>
+        <v>-0.05994858651065742</v>
       </c>
       <c r="D25">
-        <v>0.06583017600087773</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05513266244454419</v>
+      </c>
+      <c r="E25">
+        <v>0.009442408985762735</v>
+      </c>
+      <c r="F25">
+        <v>-0.006593807137401201</v>
+      </c>
+      <c r="G25">
+        <v>0.001911491362763087</v>
+      </c>
+      <c r="H25">
+        <v>0.0425671171971979</v>
+      </c>
+      <c r="I25">
+        <v>-0.0146920800846986</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.007371328560796587</v>
+        <v>0.007912219110934472</v>
       </c>
       <c r="C26">
-        <v>0.01694448562032961</v>
+        <v>-0.02495496225492428</v>
       </c>
       <c r="D26">
-        <v>0.08394439346600911</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.07155242683517114</v>
+      </c>
+      <c r="E26">
+        <v>0.02127002998830365</v>
+      </c>
+      <c r="F26">
+        <v>0.02214403170863191</v>
+      </c>
+      <c r="G26">
+        <v>0.02228083018960394</v>
+      </c>
+      <c r="H26">
+        <v>0.07467938512733654</v>
+      </c>
+      <c r="I26">
+        <v>0.04939518478355803</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.2417034322589099</v>
+        <v>0.3149541873904821</v>
       </c>
       <c r="C28">
-        <v>-0.216099358849397</v>
+        <v>0.1219846182748388</v>
       </c>
       <c r="D28">
-        <v>0.02458740925072463</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.009333866260591007</v>
+      </c>
+      <c r="E28">
+        <v>-0.04861804208426433</v>
+      </c>
+      <c r="F28">
+        <v>0.04108803491500071</v>
+      </c>
+      <c r="G28">
+        <v>0.01124901521784308</v>
+      </c>
+      <c r="H28">
+        <v>-0.0341374004669194</v>
+      </c>
+      <c r="I28">
+        <v>0.1425626590905706</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.0001254376461795076</v>
+        <v>0.0008169965062124838</v>
       </c>
       <c r="C29">
-        <v>0.02300390656332599</v>
+        <v>-0.03072566273557052</v>
       </c>
       <c r="D29">
-        <v>0.1024662499167197</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.1010169863348745</v>
+      </c>
+      <c r="E29">
+        <v>0.03839898441910743</v>
+      </c>
+      <c r="F29">
+        <v>0.02823752988507091</v>
+      </c>
+      <c r="G29">
+        <v>0.04123472512947574</v>
+      </c>
+      <c r="H29">
+        <v>0.1024183229655263</v>
+      </c>
+      <c r="I29">
+        <v>0.01849460457568683</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.0235427282722382</v>
+        <v>0.01783842963927067</v>
       </c>
       <c r="C30">
-        <v>0.06236004656837409</v>
+        <v>-0.08195525170517003</v>
       </c>
       <c r="D30">
-        <v>0.1644683861612398</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1644879164616982</v>
+      </c>
+      <c r="E30">
+        <v>0.0414637061626418</v>
+      </c>
+      <c r="F30">
+        <v>0.03088365429150911</v>
+      </c>
+      <c r="G30">
+        <v>0.04037428554884678</v>
+      </c>
+      <c r="H30">
+        <v>0.02571254043867496</v>
+      </c>
+      <c r="I30">
+        <v>-0.06577406756603299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.04459336892873347</v>
+        <v>0.01415923453292506</v>
       </c>
       <c r="C31">
-        <v>0.08575956569341975</v>
+        <v>-0.09211392189845508</v>
       </c>
       <c r="D31">
-        <v>0.07801024501142036</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.04697031598953826</v>
+      </c>
+      <c r="E31">
+        <v>0.008087760485081925</v>
+      </c>
+      <c r="F31">
+        <v>0.01508481349509146</v>
+      </c>
+      <c r="G31">
+        <v>0.01898814333131593</v>
+      </c>
+      <c r="H31">
+        <v>0.04820151070756008</v>
+      </c>
+      <c r="I31">
+        <v>0.07642290674929206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.01977373743515233</v>
+        <v>0.01220093306357421</v>
       </c>
       <c r="C32">
-        <v>0.0377132031907708</v>
+        <v>-0.04244211096355074</v>
       </c>
       <c r="D32">
-        <v>0.1063792425481799</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.1070084354351984</v>
+      </c>
+      <c r="E32">
+        <v>-0.008910674962139627</v>
+      </c>
+      <c r="F32">
+        <v>0.04217854454852034</v>
+      </c>
+      <c r="G32">
+        <v>0.03244091678583394</v>
+      </c>
+      <c r="H32">
+        <v>0.02892133711039743</v>
+      </c>
+      <c r="I32">
+        <v>0.06772812316715598</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.01576820822200787</v>
+        <v>0.009067842032478769</v>
       </c>
       <c r="C33">
-        <v>0.04353279508577156</v>
+        <v>-0.05650105188390862</v>
       </c>
       <c r="D33">
-        <v>0.1524986060682034</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1335562382517722</v>
+      </c>
+      <c r="E33">
+        <v>0.009875480048398621</v>
+      </c>
+      <c r="F33">
+        <v>0.02691408568678589</v>
+      </c>
+      <c r="G33">
+        <v>0.04086665027499703</v>
+      </c>
+      <c r="H33">
+        <v>0.05279522727795511</v>
+      </c>
+      <c r="I33">
+        <v>0.01952465809265657</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.02603162894715207</v>
+        <v>0.009899748147391484</v>
       </c>
       <c r="C34">
-        <v>0.05718613412362122</v>
+        <v>-0.06165613869319039</v>
       </c>
       <c r="D34">
-        <v>0.05024692334122211</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03553910065294561</v>
+      </c>
+      <c r="E34">
+        <v>0.02809251393048457</v>
+      </c>
+      <c r="F34">
+        <v>-0.03377669988388382</v>
+      </c>
+      <c r="G34">
+        <v>0.01143642295215372</v>
+      </c>
+      <c r="H34">
+        <v>0.0557123544502395</v>
+      </c>
+      <c r="I34">
+        <v>-0.001708330015023615</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001244631614261954</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.004557244539789021</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01504885336809835</v>
+      </c>
+      <c r="E35">
+        <v>0.00313829908843957</v>
+      </c>
+      <c r="F35">
+        <v>0.0009792559379875475</v>
+      </c>
+      <c r="G35">
+        <v>0.001882932330676583</v>
+      </c>
+      <c r="H35">
+        <v>0.009042695774053588</v>
+      </c>
+      <c r="I35">
+        <v>-0.005538278563221487</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.009340902137804035</v>
+        <v>0.009945290497586483</v>
       </c>
       <c r="C36">
-        <v>0.007452507801589185</v>
+        <v>-0.02008949275943829</v>
       </c>
       <c r="D36">
-        <v>0.09956685609018061</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.08368325335375065</v>
+      </c>
+      <c r="E36">
+        <v>0.005515570048972117</v>
+      </c>
+      <c r="F36">
+        <v>0.03472642590598634</v>
+      </c>
+      <c r="G36">
+        <v>0.02358264878989201</v>
+      </c>
+      <c r="H36">
+        <v>0.0557082981488646</v>
+      </c>
+      <c r="I36">
+        <v>0.0330510747785672</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.01015389535183037</v>
+        <v>0.01664448680010324</v>
       </c>
       <c r="C38">
-        <v>0.007442372470116082</v>
+        <v>-0.01525107813220806</v>
       </c>
       <c r="D38">
-        <v>0.09359197150506024</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.08779505116704175</v>
+      </c>
+      <c r="E38">
+        <v>-0.01286658287749266</v>
+      </c>
+      <c r="F38">
+        <v>-0.007289004041392549</v>
+      </c>
+      <c r="G38">
+        <v>0.04166460396121162</v>
+      </c>
+      <c r="H38">
+        <v>0.04357720339511011</v>
+      </c>
+      <c r="I38">
+        <v>0.04280032557729577</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.02054420415559167</v>
+        <v>0.008321390946286691</v>
       </c>
       <c r="C39">
-        <v>0.05877276973371472</v>
+        <v>-0.07503077406707051</v>
       </c>
       <c r="D39">
-        <v>0.116192148357127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1101933220921371</v>
+      </c>
+      <c r="E39">
+        <v>0.04663915519469974</v>
+      </c>
+      <c r="F39">
+        <v>-0.006008179734999414</v>
+      </c>
+      <c r="G39">
+        <v>0.02039535872744259</v>
+      </c>
+      <c r="H39">
+        <v>0.09649815117376281</v>
+      </c>
+      <c r="I39">
+        <v>-0.05815228084812865</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.01170272898330585</v>
+        <v>0.01233606936683879</v>
       </c>
       <c r="C40">
-        <v>0.01847182400083274</v>
+        <v>-0.02929116242251915</v>
       </c>
       <c r="D40">
-        <v>0.1143880279702386</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.1033013092194213</v>
+      </c>
+      <c r="E40">
+        <v>0.04014156884431047</v>
+      </c>
+      <c r="F40">
+        <v>-0.02203236999524909</v>
+      </c>
+      <c r="G40">
+        <v>0.09903067923590082</v>
+      </c>
+      <c r="H40">
+        <v>0.02995254191622541</v>
+      </c>
+      <c r="I40">
+        <v>0.03114540568781372</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.01408437763210821</v>
+        <v>0.01234607469589557</v>
       </c>
       <c r="C41">
-        <v>0.008886742840232538</v>
+        <v>-0.01770685559633682</v>
       </c>
       <c r="D41">
-        <v>0.06754240349610757</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.04879571411519748</v>
+      </c>
+      <c r="E41">
+        <v>-0.02566591421655454</v>
+      </c>
+      <c r="F41">
+        <v>0.02013194102542051</v>
+      </c>
+      <c r="G41">
+        <v>0.04160312726378856</v>
+      </c>
+      <c r="H41">
+        <v>0.03386184051891037</v>
+      </c>
+      <c r="I41">
+        <v>0.0532357432444415</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.007361765089115535</v>
+        <v>0.006011365805768453</v>
       </c>
       <c r="C43">
-        <v>0.01297387267674024</v>
+        <v>-0.01856481881610839</v>
       </c>
       <c r="D43">
-        <v>0.08466192165017369</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.06353001485071366</v>
+      </c>
+      <c r="E43">
+        <v>-0.009125253275135041</v>
+      </c>
+      <c r="F43">
+        <v>0.01994135769784105</v>
+      </c>
+      <c r="G43">
+        <v>0.04764849189841653</v>
+      </c>
+      <c r="H43">
+        <v>0.0642717973132879</v>
+      </c>
+      <c r="I43">
+        <v>0.04856372323571145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.01441429468440047</v>
+        <v>0.01086900705024643</v>
       </c>
       <c r="C44">
-        <v>0.03099391170030816</v>
+        <v>-0.0438652180566866</v>
       </c>
       <c r="D44">
-        <v>0.1117060557642972</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.1146523433424936</v>
+      </c>
+      <c r="E44">
+        <v>0.0186312054154351</v>
+      </c>
+      <c r="F44">
+        <v>0.02126968287923358</v>
+      </c>
+      <c r="G44">
+        <v>0.0251909560183108</v>
+      </c>
+      <c r="H44">
+        <v>0.03895963878934935</v>
+      </c>
+      <c r="I44">
+        <v>-0.05913979025486272</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1996,112 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.00951974660888941</v>
+        <v>0.0003949393719360992</v>
       </c>
       <c r="C46">
-        <v>0.03147244847462596</v>
+        <v>-0.04059398690099674</v>
       </c>
       <c r="D46">
-        <v>0.1033454340842663</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.08779090057596702</v>
+      </c>
+      <c r="E46">
+        <v>0.02062078207513923</v>
+      </c>
+      <c r="F46">
+        <v>0.02765402316604764</v>
+      </c>
+      <c r="G46">
+        <v>0.05750245990348221</v>
+      </c>
+      <c r="H46">
+        <v>0.1170874857627338</v>
+      </c>
+      <c r="I46">
+        <v>0.03473525641134786</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.08381944874302956</v>
+        <v>0.03964523490331053</v>
       </c>
       <c r="C47">
-        <v>0.106127337053458</v>
+        <v>-0.1223120410160664</v>
       </c>
       <c r="D47">
-        <v>0.06394885476964834</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03014400966568662</v>
+      </c>
+      <c r="E47">
+        <v>-0.01830873637007718</v>
+      </c>
+      <c r="F47">
+        <v>-0.009678131922372331</v>
+      </c>
+      <c r="G47">
+        <v>-0.03172170537426131</v>
+      </c>
+      <c r="H47">
+        <v>0.05497640040757001</v>
+      </c>
+      <c r="I47">
+        <v>0.1352321436819877</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.005903752590366195</v>
+        <v>0.006696902903787367</v>
       </c>
       <c r="C48">
-        <v>0.01827356137744848</v>
+        <v>-0.02772108011502718</v>
       </c>
       <c r="D48">
-        <v>0.09924350304630762</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.08552575047763623</v>
+      </c>
+      <c r="E48">
+        <v>-0.008369875480202037</v>
+      </c>
+      <c r="F48">
+        <v>0.03896061853990208</v>
+      </c>
+      <c r="G48">
+        <v>0.03591134784690811</v>
+      </c>
+      <c r="H48">
+        <v>0.07841756443957815</v>
+      </c>
+      <c r="I48">
+        <v>0.02717770245242587</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +2112,83 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.04296836691168541</v>
+        <v>0.01644535471700983</v>
       </c>
       <c r="C50">
-        <v>0.06317467509177294</v>
+        <v>-0.07535804985411355</v>
       </c>
       <c r="D50">
-        <v>0.0766793801811758</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05189380632589188</v>
+      </c>
+      <c r="E50">
+        <v>0.0004893101287708905</v>
+      </c>
+      <c r="F50">
+        <v>0.008491572063714524</v>
+      </c>
+      <c r="G50">
+        <v>0.03919218080608976</v>
+      </c>
+      <c r="H50">
+        <v>0.03204977148367571</v>
+      </c>
+      <c r="I50">
+        <v>0.1235959434161423</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.00478159988050479</v>
+        <v>0.00400882891449859</v>
       </c>
       <c r="C51">
-        <v>0.006275769727884933</v>
+        <v>-0.01684304200481021</v>
       </c>
       <c r="D51">
-        <v>0.06569836369284104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0701230818606307</v>
+      </c>
+      <c r="E51">
+        <v>0.03692983818686014</v>
+      </c>
+      <c r="F51">
+        <v>0.03340854520097686</v>
+      </c>
+      <c r="G51">
+        <v>0.04692072935519032</v>
+      </c>
+      <c r="H51">
+        <v>0.03331961817959774</v>
+      </c>
+      <c r="I51">
+        <v>-0.006424842884699615</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1097146201133629</v>
+        <v>0.06413806932327396</v>
       </c>
       <c r="C53">
-        <v>0.120050975415157</v>
+        <v>-0.1522105100897953</v>
       </c>
       <c r="D53">
-        <v>0.02616910355182092</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.009635980202210771</v>
+      </c>
+      <c r="E53">
+        <v>-0.0335278098327632</v>
+      </c>
+      <c r="F53">
+        <v>0.05327012435931041</v>
+      </c>
+      <c r="G53">
+        <v>0.004517655935839353</v>
+      </c>
+      <c r="H53">
+        <v>0.008723894914354229</v>
+      </c>
+      <c r="I53">
+        <v>0.09675761111866496</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.01710312521643464</v>
+        <v>0.01133980026340945</v>
       </c>
       <c r="C54">
-        <v>0.02466481340527543</v>
+        <v>-0.0397312130347588</v>
       </c>
       <c r="D54">
-        <v>0.1092147742551213</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.08728193244323335</v>
+      </c>
+      <c r="E54">
+        <v>0.008352102557111914</v>
+      </c>
+      <c r="F54">
+        <v>-0.002297663666975581</v>
+      </c>
+      <c r="G54">
+        <v>0.05661695030058379</v>
+      </c>
+      <c r="H54">
+        <v>0.07164139185839542</v>
+      </c>
+      <c r="I54">
+        <v>0.05881489795182961</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.09769995140217629</v>
+        <v>0.05127570616864142</v>
       </c>
       <c r="C55">
-        <v>0.1004272206368006</v>
+        <v>-0.1273587373802288</v>
       </c>
       <c r="D55">
-        <v>0.00981791666222993</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01826128137994058</v>
+      </c>
+      <c r="E55">
+        <v>0.002420700089458168</v>
+      </c>
+      <c r="F55">
+        <v>0.02022184940184422</v>
+      </c>
+      <c r="G55">
+        <v>0.02457640881565545</v>
+      </c>
+      <c r="H55">
+        <v>-0.0003321032674440274</v>
+      </c>
+      <c r="I55">
+        <v>0.08863309084895048</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1389958571952293</v>
+        <v>0.07360935292635633</v>
       </c>
       <c r="C56">
-        <v>0.1326670150538721</v>
+        <v>-0.1815584008257227</v>
       </c>
       <c r="D56">
-        <v>0.007404718469308807</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.02294026684245632</v>
+      </c>
+      <c r="E56">
+        <v>-0.03058138229696374</v>
+      </c>
+      <c r="F56">
+        <v>0.01745083437829643</v>
+      </c>
+      <c r="G56">
+        <v>0.05273210071867972</v>
+      </c>
+      <c r="H56">
+        <v>-0.01583819862040622</v>
+      </c>
+      <c r="I56">
+        <v>0.1117044993172491</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2344,141 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.004364268232739417</v>
+        <v>0.006834378481492638</v>
       </c>
       <c r="C58">
-        <v>0.01797571189137134</v>
+        <v>-0.04554444359801407</v>
       </c>
       <c r="D58">
-        <v>0.22209937225517</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2796369418011407</v>
+      </c>
+      <c r="E58">
+        <v>-0.02599574022367347</v>
+      </c>
+      <c r="F58">
+        <v>0.08377667023614595</v>
+      </c>
+      <c r="G58">
+        <v>0.09037180239668649</v>
+      </c>
+      <c r="H58">
+        <v>-0.1441587128396645</v>
+      </c>
+      <c r="I58">
+        <v>-0.09181890371802853</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1696542238164024</v>
+        <v>0.2427636765559229</v>
       </c>
       <c r="C59">
-        <v>-0.1590547981521946</v>
+        <v>0.08711544107474185</v>
       </c>
       <c r="D59">
-        <v>0.05236647376719111</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.06094223880995231</v>
+      </c>
+      <c r="E59">
+        <v>-0.0276446676538907</v>
+      </c>
+      <c r="F59">
+        <v>0.01413534075523953</v>
+      </c>
+      <c r="G59">
+        <v>-0.009679170738765931</v>
+      </c>
+      <c r="H59">
+        <v>-0.02078925011024848</v>
+      </c>
+      <c r="I59">
+        <v>0.02865751130625539</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1989054924965198</v>
+        <v>0.1579678512319376</v>
       </c>
       <c r="C60">
-        <v>0.09722289985770294</v>
+        <v>-0.1666517027278681</v>
       </c>
       <c r="D60">
-        <v>0.155790461671892</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.08806822836447414</v>
+      </c>
+      <c r="E60">
+        <v>0.2317260319735016</v>
+      </c>
+      <c r="F60">
+        <v>-0.1661476933105465</v>
+      </c>
+      <c r="G60">
+        <v>-0.2677509986915973</v>
+      </c>
+      <c r="H60">
+        <v>-0.1127695799607634</v>
+      </c>
+      <c r="I60">
+        <v>-0.03746804443242083</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.03088545199487166</v>
+        <v>0.01531636711438805</v>
       </c>
       <c r="C61">
-        <v>0.05481266300609168</v>
+        <v>-0.06995344471240336</v>
       </c>
       <c r="D61">
-        <v>0.1105740000097078</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.08838702550694345</v>
+      </c>
+      <c r="E61">
+        <v>0.03435287429271273</v>
+      </c>
+      <c r="F61">
+        <v>-0.01357169737320889</v>
+      </c>
+      <c r="G61">
+        <v>0.003179424717927164</v>
+      </c>
+      <c r="H61">
+        <v>0.09554410890443057</v>
+      </c>
+      <c r="I61">
+        <v>-0.01212082703926044</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2489,228 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.01109384811536785</v>
+        <v>0.004946077120294038</v>
       </c>
       <c r="C63">
-        <v>0.02559837609019212</v>
+        <v>-0.03522535807300799</v>
       </c>
       <c r="D63">
-        <v>0.09571502967627306</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07323234740438957</v>
+      </c>
+      <c r="E63">
+        <v>0.02471382401021256</v>
+      </c>
+      <c r="F63">
+        <v>0.02171014984422638</v>
+      </c>
+      <c r="G63">
+        <v>0.03337146346804054</v>
+      </c>
+      <c r="H63">
+        <v>0.0520294160920368</v>
+      </c>
+      <c r="I63">
+        <v>0.008783806157674877</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.05997115763797108</v>
+        <v>0.0246796729227015</v>
       </c>
       <c r="C64">
-        <v>0.08363669056574875</v>
+        <v>-0.1029910336444297</v>
       </c>
       <c r="D64">
-        <v>0.04778980387900267</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.03585719230860217</v>
+      </c>
+      <c r="E64">
+        <v>0.02677659010267569</v>
+      </c>
+      <c r="F64">
+        <v>0.02798601838962296</v>
+      </c>
+      <c r="G64">
+        <v>-0.008871660268067412</v>
+      </c>
+      <c r="H64">
+        <v>0.1180580093218242</v>
+      </c>
+      <c r="I64">
+        <v>-0.03484438907153926</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.02900979886903838</v>
+        <v>0.02373453130273641</v>
       </c>
       <c r="C65">
-        <v>0.01726929535477556</v>
+        <v>-0.03656167301354676</v>
       </c>
       <c r="D65">
-        <v>0.1192092722444654</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1103717880297361</v>
+      </c>
+      <c r="E65">
+        <v>0.03498875459027988</v>
+      </c>
+      <c r="F65">
+        <v>0.001671087827958542</v>
+      </c>
+      <c r="G65">
+        <v>0.002982682425140988</v>
+      </c>
+      <c r="H65">
+        <v>0.02115397602791187</v>
+      </c>
+      <c r="I65">
+        <v>0.007686914674928677</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.02344808888213496</v>
+        <v>0.006758679369924224</v>
       </c>
       <c r="C66">
-        <v>0.06575361107763057</v>
+        <v>-0.08883568163826625</v>
       </c>
       <c r="D66">
-        <v>0.1203200057559637</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1320179665411288</v>
+      </c>
+      <c r="E66">
+        <v>0.03295078671666295</v>
+      </c>
+      <c r="F66">
+        <v>-0.01521135017075519</v>
+      </c>
+      <c r="G66">
+        <v>0.02074022783802277</v>
+      </c>
+      <c r="H66">
+        <v>0.05046532226370458</v>
+      </c>
+      <c r="I66">
+        <v>-0.06495934208675572</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.0297724817464665</v>
+        <v>0.02709198030887487</v>
       </c>
       <c r="C67">
-        <v>0.01901558374518676</v>
+        <v>-0.02857574682560409</v>
       </c>
       <c r="D67">
-        <v>0.04820305724548427</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.0382628341907538</v>
+      </c>
+      <c r="E67">
+        <v>0.002479176259792981</v>
+      </c>
+      <c r="F67">
+        <v>-0.02878497566398584</v>
+      </c>
+      <c r="G67">
+        <v>0.03213191983417973</v>
+      </c>
+      <c r="H67">
+        <v>0.05809585533808761</v>
+      </c>
+      <c r="I67">
+        <v>0.03209752828398713</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.2053415685510202</v>
+        <v>0.2688802370841742</v>
       </c>
       <c r="C68">
-        <v>-0.1742905174101594</v>
+        <v>0.08826425457695337</v>
       </c>
       <c r="D68">
-        <v>0.03809870415439182</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.02944686668720187</v>
+      </c>
+      <c r="E68">
+        <v>0.005693205501164577</v>
+      </c>
+      <c r="F68">
+        <v>0.02772947039188348</v>
+      </c>
+      <c r="G68">
+        <v>0.04583615609166278</v>
+      </c>
+      <c r="H68">
+        <v>-0.05318013801029491</v>
+      </c>
+      <c r="I68">
+        <v>0.112135507096275</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.06327457218182807</v>
+        <v>0.02593762730188142</v>
       </c>
       <c r="C69">
-        <v>0.1167612146048263</v>
+        <v>-0.1221495560481981</v>
       </c>
       <c r="D69">
-        <v>0.08607825909341094</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.0451555454607666</v>
+      </c>
+      <c r="E69">
+        <v>0.003233386619312782</v>
+      </c>
+      <c r="F69">
+        <v>-0.01199669970512036</v>
+      </c>
+      <c r="G69">
+        <v>-0.01347476642907698</v>
+      </c>
+      <c r="H69">
+        <v>0.04875562420674542</v>
+      </c>
+      <c r="I69">
+        <v>0.09060957958047032</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.20740802363092</v>
+        <v>0.268086255999167</v>
       </c>
       <c r="C71">
-        <v>-0.1895037079877582</v>
+        <v>0.1004613334172167</v>
       </c>
       <c r="D71">
-        <v>0.03315178236873028</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.02169126820108095</v>
+      </c>
+      <c r="E71">
+        <v>-0.008312292969915881</v>
+      </c>
+      <c r="F71">
+        <v>0.02036558768896361</v>
+      </c>
+      <c r="G71">
+        <v>0.04513773470677516</v>
+      </c>
+      <c r="H71">
+        <v>-0.00132989805977655</v>
+      </c>
+      <c r="I71">
+        <v>0.1697595375387868</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1058429805009153</v>
+        <v>0.06289598528495198</v>
       </c>
       <c r="C72">
-        <v>0.07466744349067998</v>
+        <v>-0.1213093277459352</v>
       </c>
       <c r="D72">
-        <v>0.09265145138658745</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.068618714358851</v>
+      </c>
+      <c r="E72">
+        <v>0.09138673598147491</v>
+      </c>
+      <c r="F72">
+        <v>-0.01573796850886701</v>
+      </c>
+      <c r="G72">
+        <v>-0.002190942474193722</v>
+      </c>
+      <c r="H72">
+        <v>0.04621430796167413</v>
+      </c>
+      <c r="I72">
+        <v>-0.03710069477454202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1772696186257451</v>
+        <v>0.1419320476225948</v>
       </c>
       <c r="C73">
-        <v>0.05950053005024313</v>
+        <v>-0.1337216252961606</v>
       </c>
       <c r="D73">
-        <v>0.2015833177030428</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.09540816474606091</v>
+      </c>
+      <c r="E73">
+        <v>0.3881831057138538</v>
+      </c>
+      <c r="F73">
+        <v>-0.2546655424299892</v>
+      </c>
+      <c r="G73">
+        <v>-0.4615023828983961</v>
+      </c>
+      <c r="H73">
+        <v>-0.03262289228109667</v>
+      </c>
+      <c r="I73">
+        <v>-0.07812222617584064</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1096568837819823</v>
+        <v>0.05875350530840841</v>
       </c>
       <c r="C74">
-        <v>0.1092560929753014</v>
+        <v>-0.140842086231641</v>
       </c>
       <c r="D74">
-        <v>-0.01620902641193141</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03675554990335118</v>
+      </c>
+      <c r="E74">
+        <v>-0.01207175687432455</v>
+      </c>
+      <c r="F74">
+        <v>0.05014554078698491</v>
+      </c>
+      <c r="G74">
+        <v>0.003971935559425205</v>
+      </c>
+      <c r="H74">
+        <v>-0.007185780623082299</v>
+      </c>
+      <c r="I74">
+        <v>0.1164292152226335</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2411159890044654</v>
+        <v>0.1341697241755984</v>
       </c>
       <c r="C75">
-        <v>0.1899791047517025</v>
+        <v>-0.2625447693600093</v>
       </c>
       <c r="D75">
-        <v>-0.1034130179925667</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.135852006406581</v>
+      </c>
+      <c r="E75">
+        <v>-0.08572579769165806</v>
+      </c>
+      <c r="F75">
+        <v>-0.03109938387599238</v>
+      </c>
+      <c r="G75">
+        <v>0.08758248503527209</v>
+      </c>
+      <c r="H75">
+        <v>-0.02176256386556594</v>
+      </c>
+      <c r="I75">
+        <v>0.09447579761574913</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1471501517901745</v>
+        <v>0.07561231616467232</v>
       </c>
       <c r="C76">
-        <v>0.1343310731179909</v>
+        <v>-0.1812214862137964</v>
       </c>
       <c r="D76">
-        <v>0.01856568671781374</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.02751497167050424</v>
+      </c>
+      <c r="E76">
+        <v>-0.0277312547690218</v>
+      </c>
+      <c r="F76">
+        <v>0.009279967133564205</v>
+      </c>
+      <c r="G76">
+        <v>0.06063035675210854</v>
+      </c>
+      <c r="H76">
+        <v>0.02034989200986973</v>
+      </c>
+      <c r="I76">
+        <v>0.1192486724523897</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.02438193808504257</v>
+        <v>0.03287722665779204</v>
       </c>
       <c r="C77">
-        <v>0.08022453008594153</v>
+        <v>-0.09334746164372039</v>
       </c>
       <c r="D77">
-        <v>0.07935908967868981</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.249104568387664</v>
+      </c>
+      <c r="E77">
+        <v>-0.7621784012759723</v>
+      </c>
+      <c r="F77">
+        <v>-0.3305334853942361</v>
+      </c>
+      <c r="G77">
+        <v>-0.3570755745102547</v>
+      </c>
+      <c r="H77">
+        <v>-0.1670681108721833</v>
+      </c>
+      <c r="I77">
+        <v>0.03998345299385643</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.02465822805601409</v>
+        <v>0.01661810277298199</v>
       </c>
       <c r="C78">
-        <v>0.0718214201868876</v>
+        <v>-0.08409759472096127</v>
       </c>
       <c r="D78">
-        <v>0.1538621354965865</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1411437250377697</v>
+      </c>
+      <c r="E78">
+        <v>0.04452944712970898</v>
+      </c>
+      <c r="F78">
+        <v>0.04471995833251322</v>
+      </c>
+      <c r="G78">
+        <v>0.03499369061634847</v>
+      </c>
+      <c r="H78">
+        <v>0.02452501657807443</v>
+      </c>
+      <c r="I78">
+        <v>0.005740256033423916</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.08561090416893848</v>
+        <v>0.04079240047117492</v>
       </c>
       <c r="C79">
-        <v>0.1531968360965678</v>
+        <v>-0.177390571438126</v>
       </c>
       <c r="D79">
-        <v>-0.08116989836828842</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05612069095015017</v>
+      </c>
+      <c r="E79">
+        <v>-0.107040995977124</v>
+      </c>
+      <c r="F79">
+        <v>0.803830989687003</v>
+      </c>
+      <c r="G79">
+        <v>-0.4389596410188015</v>
+      </c>
+      <c r="H79">
+        <v>-0.1118405779193363</v>
+      </c>
+      <c r="I79">
+        <v>-0.163408140336681</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.007167209080502471</v>
+        <v>0.0009531266404361711</v>
       </c>
       <c r="C80">
-        <v>0.04761885099143771</v>
+        <v>-0.04852269046128746</v>
       </c>
       <c r="D80">
-        <v>0.04921063773643678</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04793793696677379</v>
+      </c>
+      <c r="E80">
+        <v>0.02098265569074976</v>
+      </c>
+      <c r="F80">
+        <v>0.009863374679720434</v>
+      </c>
+      <c r="G80">
+        <v>0.04873508615741585</v>
+      </c>
+      <c r="H80">
+        <v>0.00338938158445696</v>
+      </c>
+      <c r="I80">
+        <v>0.05106656965000316</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1277654507580451</v>
+        <v>0.06082363451608291</v>
       </c>
       <c r="C81">
-        <v>0.12740185901893</v>
+        <v>-0.1633329030945824</v>
       </c>
       <c r="D81">
-        <v>-0.05975040134633856</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07698848170550336</v>
+      </c>
+      <c r="E81">
+        <v>-0.06909720073720314</v>
+      </c>
+      <c r="F81">
+        <v>0.04713188371153069</v>
+      </c>
+      <c r="G81">
+        <v>0.06108824939762104</v>
+      </c>
+      <c r="H81">
+        <v>0.0509430523700747</v>
+      </c>
+      <c r="I81">
+        <v>0.1351941492792328</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.2583975757239034</v>
+        <v>0.1177365674253414</v>
       </c>
       <c r="C82">
-        <v>0.2871975313431232</v>
+        <v>-0.3247200692321416</v>
       </c>
       <c r="D82">
-        <v>-0.2064940267138392</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2251219537367432</v>
+      </c>
+      <c r="E82">
+        <v>-0.04054838606976664</v>
+      </c>
+      <c r="F82">
+        <v>-0.1152796673816656</v>
+      </c>
+      <c r="G82">
+        <v>0.08148222979505033</v>
+      </c>
+      <c r="H82">
+        <v>0.08283680907987813</v>
+      </c>
+      <c r="I82">
+        <v>0.07244845665107758</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.002782937970539294</v>
+        <v>-0.006113061168781422</v>
       </c>
       <c r="C83">
-        <v>0.05479780757019082</v>
+        <v>-0.03698711204719752</v>
       </c>
       <c r="D83">
-        <v>0.02599251413397383</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04585845929449605</v>
+      </c>
+      <c r="E83">
+        <v>-0.09262979857050369</v>
+      </c>
+      <c r="F83">
+        <v>0.02729464302919545</v>
+      </c>
+      <c r="G83">
+        <v>0.06232455304740413</v>
+      </c>
+      <c r="H83">
+        <v>0.04833459269856453</v>
+      </c>
+      <c r="I83">
+        <v>0.005435071884571771</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>9.414953600080438e-06</v>
+        <v>-0.0009357429793603898</v>
       </c>
       <c r="C84">
-        <v>0.0004819369470678283</v>
+        <v>-0.0140158319236008</v>
       </c>
       <c r="D84">
-        <v>0.0005987934724416871</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.035730934516219</v>
+      </c>
+      <c r="E84">
+        <v>-0.00967252900405797</v>
+      </c>
+      <c r="F84">
+        <v>0.01255248304785556</v>
+      </c>
+      <c r="G84">
+        <v>0.0389060795045654</v>
+      </c>
+      <c r="H84">
+        <v>-0.01855952296497847</v>
+      </c>
+      <c r="I84">
+        <v>-0.02916148184851051</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1508865543398283</v>
+        <v>0.07526325774309771</v>
       </c>
       <c r="C85">
-        <v>0.1330904463142361</v>
+        <v>-0.1842567067622708</v>
       </c>
       <c r="D85">
-        <v>-0.04235318556871646</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.08666648229859333</v>
+      </c>
+      <c r="E85">
+        <v>-0.003232016963766004</v>
+      </c>
+      <c r="F85">
+        <v>0.08158563878773553</v>
+      </c>
+      <c r="G85">
+        <v>0.04081705570488808</v>
+      </c>
+      <c r="H85">
+        <v>-0.0002077434000336071</v>
+      </c>
+      <c r="I85">
+        <v>0.1050405713000623</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.01334442896104063</v>
+        <v>0.01158863019154052</v>
       </c>
       <c r="C86">
-        <v>0.01752921734031756</v>
+        <v>-0.02793836922464257</v>
       </c>
       <c r="D86">
-        <v>0.08149179990157487</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1014605201733438</v>
+      </c>
+      <c r="E86">
+        <v>-0.04581955169516339</v>
+      </c>
+      <c r="F86">
+        <v>-0.01744233488523569</v>
+      </c>
+      <c r="G86">
+        <v>-0.02348998129482328</v>
+      </c>
+      <c r="H86">
+        <v>0.01728063611121615</v>
+      </c>
+      <c r="I86">
+        <v>0.06541910209717519</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.0146642643748096</v>
+        <v>0.01033989200525475</v>
       </c>
       <c r="C87">
-        <v>0.03313621659086367</v>
+        <v>-0.05422636468440038</v>
       </c>
       <c r="D87">
-        <v>0.1197451106145366</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1419140884935658</v>
+      </c>
+      <c r="E87">
+        <v>-0.01274486810765312</v>
+      </c>
+      <c r="F87">
+        <v>0.03628356984015923</v>
+      </c>
+      <c r="G87">
+        <v>0.07075787439120132</v>
+      </c>
+      <c r="H87">
+        <v>-0.008408197574221525</v>
+      </c>
+      <c r="I87">
+        <v>-0.05627370492421604</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.05983978659408937</v>
+        <v>0.03394457126192171</v>
       </c>
       <c r="C88">
-        <v>0.04793149082400899</v>
+        <v>-0.0683669886187689</v>
       </c>
       <c r="D88">
-        <v>0.04815844126588545</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01484143910595447</v>
+      </c>
+      <c r="E88">
+        <v>0.01195310018644343</v>
+      </c>
+      <c r="F88">
+        <v>0.02943546388527058</v>
+      </c>
+      <c r="G88">
+        <v>0.01877967298394026</v>
+      </c>
+      <c r="H88">
+        <v>0.04147603804456403</v>
+      </c>
+      <c r="I88">
+        <v>0.06038394022095391</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.3083264104356629</v>
+        <v>0.4053960422553311</v>
       </c>
       <c r="C89">
-        <v>-0.3377816796493052</v>
+        <v>0.1872161730200023</v>
       </c>
       <c r="D89">
-        <v>0.04311279259584554</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02770011970116878</v>
+      </c>
+      <c r="E89">
+        <v>-0.01910768177942327</v>
+      </c>
+      <c r="F89">
+        <v>0.0565363544172869</v>
+      </c>
+      <c r="G89">
+        <v>0.05425765849947484</v>
+      </c>
+      <c r="H89">
+        <v>0.1516200446532899</v>
+      </c>
+      <c r="I89">
+        <v>-0.4094484708987601</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.2480679940799399</v>
+        <v>0.3113413037417823</v>
       </c>
       <c r="C90">
-        <v>-0.2525084860915661</v>
+        <v>0.1281358669351338</v>
       </c>
       <c r="D90">
-        <v>0.03642775038550376</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.02981338341684586</v>
+      </c>
+      <c r="E90">
+        <v>-0.01858187416368018</v>
+      </c>
+      <c r="F90">
+        <v>-0.01552658101162603</v>
+      </c>
+      <c r="G90">
+        <v>0.06094983223994414</v>
+      </c>
+      <c r="H90">
+        <v>-0.03662914428016722</v>
+      </c>
+      <c r="I90">
+        <v>0.08094515239781874</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.1604333078549307</v>
+        <v>0.08210574816460664</v>
       </c>
       <c r="C91">
-        <v>0.1757236995873399</v>
+        <v>-0.2059755996082096</v>
       </c>
       <c r="D91">
-        <v>-0.09769625461706045</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1088024483881307</v>
+      </c>
+      <c r="E91">
+        <v>-0.06957220929243851</v>
+      </c>
+      <c r="F91">
+        <v>0.07896072215590089</v>
+      </c>
+      <c r="G91">
+        <v>0.01438700087588855</v>
+      </c>
+      <c r="H91">
+        <v>0.003265879883060085</v>
+      </c>
+      <c r="I91">
+        <v>0.1215791386988414</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.2208692306184755</v>
+        <v>0.3209850986173391</v>
       </c>
       <c r="C92">
-        <v>-0.2606572422105952</v>
+        <v>0.1617911605851656</v>
       </c>
       <c r="D92">
-        <v>-0.04533527273830129</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.006030498557825727</v>
+      </c>
+      <c r="E92">
+        <v>-0.08481002646237452</v>
+      </c>
+      <c r="F92">
+        <v>0.02591164358389432</v>
+      </c>
+      <c r="G92">
+        <v>0.04827176880416267</v>
+      </c>
+      <c r="H92">
+        <v>0.007816664564675587</v>
+      </c>
+      <c r="I92">
+        <v>-0.124251870903911</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.2685024914825065</v>
+        <v>0.3281923329143431</v>
       </c>
       <c r="C93">
-        <v>-0.260395007970514</v>
+        <v>0.1338258259980444</v>
       </c>
       <c r="D93">
-        <v>0.01738594772176822</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01069270591267915</v>
+      </c>
+      <c r="E93">
+        <v>0.02582184584602234</v>
+      </c>
+      <c r="F93">
+        <v>0.01819124543202864</v>
+      </c>
+      <c r="G93">
+        <v>-0.001746019288890936</v>
+      </c>
+      <c r="H93">
+        <v>-0.00588588705190915</v>
+      </c>
+      <c r="I93">
+        <v>0.1138748712154543</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.3129531497202275</v>
+        <v>0.1628013084999993</v>
       </c>
       <c r="C94">
-        <v>0.2551109770315001</v>
+        <v>-0.3526395077154736</v>
       </c>
       <c r="D94">
-        <v>-0.3842213255936356</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.3601982370805689</v>
+      </c>
+      <c r="E94">
+        <v>-0.04408228953291307</v>
+      </c>
+      <c r="F94">
+        <v>-0.121596472226234</v>
+      </c>
+      <c r="G94">
+        <v>0.2736617466329991</v>
+      </c>
+      <c r="H94">
+        <v>-0.1621221412757461</v>
+      </c>
+      <c r="I94">
+        <v>-0.4440500757993459</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.02599286053030656</v>
+        <v>0.02402544448768274</v>
       </c>
       <c r="C95">
-        <v>0.03999458355564062</v>
+        <v>-0.06476076977874806</v>
       </c>
       <c r="D95">
-        <v>0.08795619159462242</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1173794475874948</v>
+      </c>
+      <c r="E95">
+        <v>-0.2035974579844184</v>
+      </c>
+      <c r="F95">
+        <v>-0.07811132411866933</v>
+      </c>
+      <c r="G95">
+        <v>-0.02128488470149134</v>
+      </c>
+      <c r="H95">
+        <v>0.4258872579182931</v>
+      </c>
+      <c r="I95">
+        <v>-0.4558740086331532</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0002853248235739331</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0002103363036157332</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.0001208849128910323</v>
+      </c>
+      <c r="E97">
+        <v>0.0004481999582265413</v>
+      </c>
+      <c r="F97">
+        <v>-0.001791678165674145</v>
+      </c>
+      <c r="G97">
+        <v>-0.0007552871523611392</v>
+      </c>
+      <c r="H97">
+        <v>-0.000899736665222809</v>
+      </c>
+      <c r="I97">
+        <v>-0.0004306761162244463</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.147914764617878</v>
+        <v>0.1189182760024245</v>
       </c>
       <c r="C98">
-        <v>0.07276475505926411</v>
+        <v>-0.1364075513726597</v>
       </c>
       <c r="D98">
-        <v>0.1056194199074953</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.06320316483240788</v>
+      </c>
+      <c r="E98">
+        <v>0.2685457387337525</v>
+      </c>
+      <c r="F98">
+        <v>-0.1694087621124618</v>
+      </c>
+      <c r="G98">
+        <v>-0.288668475307661</v>
+      </c>
+      <c r="H98">
+        <v>-0.08417787393881729</v>
+      </c>
+      <c r="I98">
+        <v>-0.03249979391728882</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.000316372479736865</v>
+        <v>0.001195789745256731</v>
       </c>
       <c r="C101">
-        <v>0.0224535951616903</v>
+        <v>-0.03016540669532775</v>
       </c>
       <c r="D101">
-        <v>0.1027497319411073</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.1006462222453543</v>
+      </c>
+      <c r="E101">
+        <v>0.03771615893368954</v>
+      </c>
+      <c r="F101">
+        <v>0.02872641934547387</v>
+      </c>
+      <c r="G101">
+        <v>0.04211496860342292</v>
+      </c>
+      <c r="H101">
+        <v>0.103625280631061</v>
+      </c>
+      <c r="I101">
+        <v>0.01832792593759173</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1135546763010216</v>
+        <v>0.04494071535210281</v>
       </c>
       <c r="C102">
-        <v>0.1468757071696027</v>
+        <v>-0.1523050505963372</v>
       </c>
       <c r="D102">
-        <v>-0.0733324248653892</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.09156862761765851</v>
+      </c>
+      <c r="E102">
+        <v>-0.0303739288475917</v>
+      </c>
+      <c r="F102">
+        <v>-0.06082555578468004</v>
+      </c>
+      <c r="G102">
+        <v>0.006155307032611664</v>
+      </c>
+      <c r="H102">
+        <v>0.052748674862554</v>
+      </c>
+      <c r="I102">
+        <v>0.03289383766058666</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
